--- a/原本.xlsx
+++ b/原本.xlsx
@@ -123,19 +123,252 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="G1:G1048576"/>
+  <dimension ref="A1:BY1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BQ181" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A201" activeCellId="0" sqref="A201:BY201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.40625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX201" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY201" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G742" s="1" t="s">
         <v>0</v>
